--- a/data/trans_bre/P21B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P21B_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.063152780325472</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.336829771631021</v>
+        <v>1.33682977163101</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.01400297976830755</v>
@@ -649,7 +649,7 @@
         <v>0.02187088747414918</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0142870070876229</v>
+        <v>0.01428700708762278</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.926898132206389</v>
+        <v>-7.568380811105876</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9420235853634897</v>
+        <v>0.9655091909706275</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.592169981452318</v>
+        <v>-3.953477461589198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.895658559079271</v>
+        <v>-3.401777039818208</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.08059848311110132</v>
+        <v>-0.07601787514776737</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009509172107794893</v>
+        <v>0.009748964729631647</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.04583283259028018</v>
+        <v>-0.04075893610061897</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.04021739590452512</v>
+        <v>-0.03487710844789254</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.000983007719176</v>
+        <v>6.164877123880288</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.563796171986084</v>
+        <v>9.145340867084034</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.676038556290029</v>
+        <v>9.844207875070857</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.643261281325345</v>
+        <v>7.965410540210259</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06485600257961539</v>
+        <v>0.06528098303589938</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09364276043885267</v>
+        <v>0.1006533921714825</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1092656119033556</v>
+        <v>0.114288483415584</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.08685664231103991</v>
+        <v>0.09071391311454922</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.376671800603813</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.13062000530213</v>
+        <v>1.130620005302152</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02295201878781566</v>
@@ -749,7 +749,7 @@
         <v>0.01464045167540283</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.0120273201995872</v>
+        <v>0.01202732019958744</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.517895784838173</v>
+        <v>-1.533334734691412</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.487487213716969</v>
+        <v>-4.785521313776041</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.720192813827671</v>
+        <v>-4.824899770030798</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.571154410796859</v>
+        <v>-4.528898000733833</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01522916394687937</v>
+        <v>-0.01533377909831393</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04547924995213946</v>
+        <v>-0.0484652588421244</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04826046636844861</v>
+        <v>-0.04972278380487881</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0464241796748927</v>
+        <v>-0.04631195860243863</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.54089642492158</v>
+        <v>11.59787948016855</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.631536519606481</v>
+        <v>2.780100670926624</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.901256794940313</v>
+        <v>9.872215022586637</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.337817427385408</v>
+        <v>9.165529014646047</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1299354387148166</v>
+        <v>0.1335010484982238</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02751209061311219</v>
+        <v>0.02836992132294629</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.114748230791123</v>
+        <v>0.1129702371136231</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1061754958467713</v>
+        <v>0.1043730727395542</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.417992043475525</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.911307664866581</v>
+        <v>3.911307664866559</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05887825597268727</v>
@@ -849,7 +849,7 @@
         <v>-0.02616526680735913</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.04214380336993435</v>
+        <v>0.0421438033699341</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.48988529536132</v>
+        <v>1.371084518885496</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.22376419447694</v>
+        <v>-6.661234911187254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.03976630612949</v>
+        <v>-13.49001317668776</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.029414077940542</v>
+        <v>-1.18371090868816</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01512392655424515</v>
+        <v>0.01390136407074926</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.0633319562758046</v>
+        <v>-0.06711662588357421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1420895417453422</v>
+        <v>-0.1413297748913288</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.01065283025612459</v>
+        <v>-0.01166255016329317</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.07325310510513</v>
+        <v>13.15751883780315</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.174435483703864</v>
+        <v>4.350817064429367</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.57803555171414</v>
+        <v>9.583165914756295</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.26474160551608</v>
+        <v>11.31235939606247</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1503804078151835</v>
+        <v>0.1514964269767863</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04397745744447936</v>
+        <v>0.04634784343201563</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1236228991368109</v>
+        <v>0.1130785281501103</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.13376153426926</v>
+        <v>0.1301725060919617</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-5.265842081524186</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.8249078353397721</v>
+        <v>-0.8249078353397832</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.01157150947028865</v>
@@ -949,7 +949,7 @@
         <v>-0.05519961639901561</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.008894932080466664</v>
+        <v>-0.008894932080466784</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.298307737086286</v>
+        <v>-5.818024497652993</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.75931261151887</v>
+        <v>-5.211527990120395</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-13.11041481470097</v>
+        <v>-13.19610278520953</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-8.389688577529359</v>
+        <v>-8.094356826701681</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05319004413251143</v>
+        <v>-0.05887719834431405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04832736288358895</v>
+        <v>-0.05283142405710461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1344896385533791</v>
+        <v>-0.1353879612858125</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08519269652904492</v>
+        <v>-0.08455728992120333</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.84790610425917</v>
+        <v>3.603012215441022</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.6484792675089</v>
+        <v>10.18434856910507</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.129231154703844</v>
+        <v>2.616824809338556</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14.30670614121051</v>
+        <v>13.71264830377801</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05160027954662888</v>
+        <v>0.03734846680246124</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09532524935173696</v>
+        <v>0.1178301462311934</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02129121589895994</v>
+        <v>0.02805895051240775</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.172531815581229</v>
+        <v>0.166498068228773</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.222664516893329</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.954157993277788</v>
+        <v>7.954157993277756</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.01313221574994378</v>
@@ -1049,7 +1049,7 @@
         <v>0.07784944975282745</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0864151798697967</v>
+        <v>0.0864151798697963</v>
       </c>
     </row>
     <row r="17">
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-15.27479629539356</v>
+        <v>-14.5090074169102</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.152295519966771</v>
+        <v>-2.458543151727445</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1543140159706962</v>
+        <v>-0.1453668070973735</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.03248596761315235</v>
+        <v>-0.02441628780322805</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>0</v>
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.194852371288714</v>
+        <v>5.212536371876392</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.99076648995063</v>
+        <v>14.34893172982165</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.84125289534236</v>
+        <v>22.12215232486002</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25.43304594953383</v>
+        <v>26.75658318363269</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05458697162015647</v>
+        <v>0.05492375666376598</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1931369449138563</v>
+        <v>0.1727825588129108</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2794470949306379</v>
+        <v>0.2840610184673996</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3409435913386667</v>
+        <v>0.364765384787933</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>1.68350259007739</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.08161454253005074</v>
+        <v>-0.08161454253007294</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.01358380353361266</v>
@@ -1149,7 +1149,7 @@
         <v>0.01712329705011931</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.0008388420796543435</v>
+        <v>-0.0008388420796545717</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-7.348576437611469</v>
+        <v>-6.748031016470962</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.752169174185408</v>
+        <v>-4.993497044494013</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.78660648558526</v>
+        <v>-4.700431487422021</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.07348576437611469</v>
+        <v>-0.06748031016470962</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.05752169174185408</v>
+        <v>-0.04993497044494014</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.04825670128053706</v>
+        <v>-0.04781079928526539</v>
       </c>
     </row>
     <row r="21">
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9.701778039388179</v>
+        <v>8.108853672384605</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.201948283421007</v>
+        <v>4.653516583364723</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.107484610320046</v>
+        <v>0.08824701759105184</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.04427446959599698</v>
+        <v>0.04929748231088591</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.13410629828823</v>
+        <v>-3.980053100566674</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.50889947475809</v>
+        <v>-6.727746273545346</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.80032228561987</v>
+        <v>-10.48163852198247</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.653025229139517</v>
+        <v>-6.474440944148937</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.04396863685166335</v>
+        <v>-0.04173836304681725</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.06552479779919718</v>
+        <v>-0.06843847216200097</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1131050517629768</v>
+        <v>-0.1131775788636409</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.07468503887232852</v>
+        <v>-0.07400889831285859</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.35763298374459</v>
+        <v>10.8461443922388</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3713651867215713</v>
+        <v>0.414541478855443</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.285672174396383</v>
+        <v>7.314465450253668</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.374927003575029</v>
+        <v>7.286929622765524</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1233428594277751</v>
+        <v>0.1261984232648207</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003300592329925112</v>
+        <v>0.003966337493421327</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07268280140710016</v>
+        <v>0.08336495584284231</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.09186468106387284</v>
+        <v>0.0892784190759917</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>2.86296591230748</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-1.356948844963191</v>
+        <v>-1.356948844963179</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01549131567080128</v>
@@ -1349,7 +1349,7 @@
         <v>0.03343160946276496</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.01489555831522328</v>
+        <v>-0.01489555831522315</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.791084255406203</v>
+        <v>-3.100316932071475</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-10.30972388335669</v>
+        <v>-11.43037953575907</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-6.247252080589251</v>
+        <v>-6.319884458018707</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-8.702680291077156</v>
+        <v>-8.957627972324513</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.0283960877840751</v>
+        <v>-0.03143496069880895</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1063258959927893</v>
+        <v>-0.1164123066584593</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.06737918124592877</v>
+        <v>-0.06845990147055274</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09260974838757817</v>
+        <v>-0.09581992995802568</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.553177728091409</v>
+        <v>8.039960582258919</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.075037518015161</v>
+        <v>3.546381643535442</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12.17961017488299</v>
+        <v>12.25287152653204</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6.706474760457342</v>
+        <v>6.644307129005821</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08408202719447605</v>
+        <v>0.08963287216582289</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04340072843252471</v>
+        <v>0.03848383273088143</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1533398873665087</v>
+        <v>0.1573101817624285</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0782063652091414</v>
+        <v>0.07575569599580222</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-0.1185530727297546</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.3682128997439138</v>
+        <v>0.3682128997438916</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01381109550743543</v>
@@ -1449,7 +1449,7 @@
         <v>-0.001278217422498558</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.004031800484549865</v>
+        <v>0.004031800484549622</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.7593085929147324</v>
+        <v>-0.6818117709196619</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.104904378335506</v>
+        <v>-2.234398639816451</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.376976718468921</v>
+        <v>-2.987408473969538</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.126178553228495</v>
+        <v>-2.353982749291541</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.00797790037507507</v>
+        <v>-0.007029674422532379</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.02147843612459237</v>
+        <v>-0.02267630484822196</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.03573018474759772</v>
+        <v>-0.03180958782832873</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.0228554554281076</v>
+        <v>-0.02531563778687341</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.920316785941713</v>
+        <v>3.923660182614095</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.260113249446566</v>
+        <v>1.282421306349554</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.843328789199678</v>
+        <v>3.119702891435057</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.359203662150533</v>
+        <v>3.700543225327531</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.04177278339647986</v>
+        <v>0.04175580180060562</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01308177327940702</v>
+        <v>0.01340616790080459</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03118950740521188</v>
+        <v>0.03444754431519152</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.03765420928124116</v>
+        <v>0.04138077882090823</v>
       </c>
     </row>
     <row r="31">
